--- a/data/trans_bre/P9_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_1-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-2,9%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,0</t>
+          <t>-3,15; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 7,63</t>
+          <t>-8,03; 0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,07</t>
+          <t>-3,29; 1,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 8,41</t>
+          <t>-8,06; 0,11</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-0,38%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,37</t>
+          <t>-1,99; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,59</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,37</t>
+          <t>-1,99; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,62</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,18</t>
+          <t>-2,17; 0,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,17</t>
+          <t>-2,19; 0,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,02</t>
+          <t>-2,43; 0,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,33</t>
+          <t>-2,58; 0,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,02</t>
+          <t>-2,45; 0,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,36</t>
+          <t>-2,59; 0,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 0,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; -0,01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 0,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; -0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P9_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.007622740299206843</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.857123422835883</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-7.690391251193937e-05</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.02878093852996041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 1,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,03; 0,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 1,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 0,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.154722752517479</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.03845091904398</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.03291566756077938</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.08071217442430029</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.887570483120159</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1057443707574658</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.01922571901577506</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.001035265954971323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3934076751735183</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3014140817074518</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.003934076751735183</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.003014140817074518</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.985317764628679</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.814552951524897</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01985317764628679</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.01814552951524898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 0,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 0,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,131 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,07%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.6948200594915965</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.006968141337877822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 0,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 0,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 0,2</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 0,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-2.371468707800155</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.02393836677536069</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>0.2709799151137784</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>0.002713961226753511</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 0,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; -0,01</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 0,12</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; -0,01</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.1909597969164012</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.9381388764715282</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.001912456418041047</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0094023882802952</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.026808409778104</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.019766028837946</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01026846890357602</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02022164144066637</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2651208480666064</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.2209462967345411</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.00266093449841776</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.002224872540358317</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
